--- a/SchedulingData/static4/pso/scheduling1_9.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_9.xlsx
@@ -466,131 +466,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.1</v>
+        <v>46.22</v>
       </c>
       <c r="E2" t="n">
-        <v>26.88</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.22</v>
+        <v>54.92</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58.1</v>
+        <v>54.92</v>
       </c>
       <c r="D4" t="n">
-        <v>128.72</v>
+        <v>111.06</v>
       </c>
       <c r="E4" t="n">
-        <v>21.448</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46.22</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>127.92</v>
+        <v>43.1</v>
       </c>
       <c r="E5" t="n">
-        <v>23.488</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>89.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>24.68</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>128.72</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>194.76</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>18.484</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>111.06</v>
       </c>
       <c r="D8" t="n">
-        <v>85.26000000000001</v>
+        <v>143.86</v>
       </c>
       <c r="E8" t="n">
-        <v>24.624</v>
+        <v>21.024</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.7</v>
+        <v>43.1</v>
       </c>
       <c r="D9" t="n">
-        <v>141.14</v>
+        <v>127.3</v>
       </c>
       <c r="E9" t="n">
-        <v>20.676</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85.26000000000001</v>
+        <v>46.22</v>
       </c>
       <c r="D10" t="n">
-        <v>151.26</v>
+        <v>131.84</v>
       </c>
       <c r="E10" t="n">
-        <v>21.144</v>
+        <v>21.136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>143.86</v>
       </c>
       <c r="D11" t="n">
-        <v>76.5</v>
+        <v>213.82</v>
       </c>
       <c r="E11" t="n">
-        <v>26.48</v>
+        <v>15.648</v>
       </c>
     </row>
     <row r="12">
@@ -656,150 +656,150 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>151.26</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>228.46</v>
+        <v>143.86</v>
       </c>
       <c r="E12" t="n">
-        <v>18.024</v>
+        <v>19.944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141.14</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>190.76</v>
+        <v>81.5</v>
       </c>
       <c r="E13" t="n">
-        <v>18.344</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>194.76</v>
+        <v>81.5</v>
       </c>
       <c r="D14" t="n">
-        <v>255.8</v>
+        <v>153.5</v>
       </c>
       <c r="E14" t="n">
-        <v>14.5</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76.5</v>
+        <v>153.5</v>
       </c>
       <c r="D15" t="n">
-        <v>199.3</v>
+        <v>201.64</v>
       </c>
       <c r="E15" t="n">
-        <v>20.78</v>
+        <v>19.696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>127.3</v>
       </c>
       <c r="D16" t="n">
-        <v>74.90000000000001</v>
+        <v>198.3</v>
       </c>
       <c r="E16" t="n">
-        <v>27.16</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127.92</v>
+        <v>131.84</v>
       </c>
       <c r="D17" t="n">
-        <v>165.62</v>
+        <v>174.34</v>
       </c>
       <c r="E17" t="n">
-        <v>20.848</v>
+        <v>18.016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>255.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>309.22</v>
+        <v>143.34</v>
       </c>
       <c r="E18" t="n">
-        <v>10.288</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>165.62</v>
+        <v>143.86</v>
       </c>
       <c r="D19" t="n">
-        <v>221.48</v>
+        <v>187.46</v>
       </c>
       <c r="E19" t="n">
-        <v>18.352</v>
+        <v>17.224</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>74.90000000000001</v>
+        <v>213.82</v>
       </c>
       <c r="D20" t="n">
-        <v>141.5</v>
+        <v>259.88</v>
       </c>
       <c r="E20" t="n">
-        <v>22.12</v>
+        <v>13.152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>190.76</v>
+        <v>187.46</v>
       </c>
       <c r="D21" t="n">
-        <v>258.86</v>
+        <v>238.36</v>
       </c>
       <c r="E21" t="n">
-        <v>15.624</v>
+        <v>13.264</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>258.86</v>
+        <v>198.3</v>
       </c>
       <c r="D22" t="n">
-        <v>297.2</v>
+        <v>260.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>221.48</v>
+        <v>260.4</v>
       </c>
       <c r="D23" t="n">
-        <v>288.38</v>
+        <v>333.82</v>
       </c>
       <c r="E23" t="n">
-        <v>14.272</v>
+        <v>10.788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>228.46</v>
+        <v>143.34</v>
       </c>
       <c r="D24" t="n">
-        <v>301.16</v>
+        <v>195.14</v>
       </c>
       <c r="E24" t="n">
-        <v>14.384</v>
+        <v>18.876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>199.3</v>
+        <v>174.34</v>
       </c>
       <c r="D25" t="n">
-        <v>270.14</v>
+        <v>251.86</v>
       </c>
       <c r="E25" t="n">
-        <v>17.276</v>
+        <v>14.364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>270.14</v>
+        <v>251.86</v>
       </c>
       <c r="D26" t="n">
-        <v>367.04</v>
+        <v>305.58</v>
       </c>
       <c r="E26" t="n">
-        <v>14.156</v>
+        <v>11.592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>297.2</v>
+        <v>201.64</v>
       </c>
       <c r="D27" t="n">
-        <v>353</v>
+        <v>260.96</v>
       </c>
       <c r="E27" t="n">
-        <v>8.960000000000001</v>
+        <v>17.364</v>
       </c>
     </row>
     <row r="28">
@@ -960,112 +960,112 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288.38</v>
+        <v>260.96</v>
       </c>
       <c r="D28" t="n">
-        <v>332.3</v>
+        <v>316.6</v>
       </c>
       <c r="E28" t="n">
-        <v>11.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>141.5</v>
+        <v>238.36</v>
       </c>
       <c r="D29" t="n">
-        <v>211.26</v>
+        <v>295.96</v>
       </c>
       <c r="E29" t="n">
-        <v>17.764</v>
+        <v>9.624000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>309.22</v>
+        <v>316.6</v>
       </c>
       <c r="D30" t="n">
-        <v>363.84</v>
+        <v>377.64</v>
       </c>
       <c r="E30" t="n">
-        <v>7.456</v>
+        <v>10.416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>211.26</v>
+        <v>195.14</v>
       </c>
       <c r="D31" t="n">
-        <v>243.46</v>
+        <v>263.2</v>
       </c>
       <c r="E31" t="n">
-        <v>15.684</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>243.46</v>
+        <v>295.96</v>
       </c>
       <c r="D32" t="n">
-        <v>315.78</v>
+        <v>343.36</v>
       </c>
       <c r="E32" t="n">
-        <v>12.032</v>
+        <v>6.504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>301.16</v>
+        <v>259.88</v>
       </c>
       <c r="D33" t="n">
-        <v>354.32</v>
+        <v>319.38</v>
       </c>
       <c r="E33" t="n">
-        <v>10.688</v>
+        <v>10.312</v>
       </c>
     </row>
   </sheetData>
